--- a/TA/TA Hours - Your Name - Spring 2026.xlsx
+++ b/TA/TA Hours - Your Name - Spring 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Spring-Semester-\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC86B04-E9BA-4E91-BB0F-24AF055DE3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D8EE6-C2D0-4560-8BF2-1A5989DB9683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Time spent TAing for STAT201 Spring 2026</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Grading/Meeting Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grading </t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <dimension ref="A1:Z732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -803,7 +806,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="42" t="str">
         <f>"You have worked "&amp;Q8&amp;" hours this semester and have "&amp;Q9&amp;" hours left to work."</f>
-        <v>You have worked 1 hours this semester and have 149 hours left to work.</v>
+        <v>You have worked 2 hours this semester and have 148 hours left to work.</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -964,9 +967,15 @@
     </row>
     <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="12">
+        <v>46048</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="26"/>
       <c r="G8" s="30"/>
@@ -978,27 +987,27 @@
       <c r="M8" s="1"/>
       <c r="N8" s="38">
         <f>SUM(C7:C49)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" s="7">
         <f ca="1">(TODAY()-(O21))/7</f>
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" ref="P8:P9" ca="1" si="0">N8/O8</f>
-        <v>1.75</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" ref="Q8:S8" si="1">ROUND(N8,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57099999999999995</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="S8" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>1.75</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1024,27 +1033,27 @@
       <c r="M9" s="1"/>
       <c r="N9" s="38">
         <f>150-N8</f>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O9" s="1">
         <f ca="1">(P21-TODAY())/7</f>
-        <v>17.285714285714285</v>
+        <v>17</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6198347107438025</v>
+        <v>8.7058823529411757</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" ref="Q9:S9" si="2">ROUND(N9,3)</f>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>17.286000000000001</v>
+        <v>17</v>
       </c>
       <c r="S9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6199999999999992</v>
+        <v>8.7059999999999995</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -21322,11 +21331,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21589,20 +21599,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21627,9 +21634,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TA/TA Hours - Your Name - Spring 2026.xlsx
+++ b/TA/TA Hours - Your Name - Spring 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Spring-Semester-\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D8EE6-C2D0-4560-8BF2-1A5989DB9683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950470EC-A522-4503-AD4B-C0F6FC64A740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Time spent TAing for STAT201 Spring 2026</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">Grading </t>
+  </si>
+  <si>
+    <t>Grading</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
   <dimension ref="A1:Z732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -806,7 +809,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="42" t="str">
         <f>"You have worked "&amp;Q8&amp;" hours this semester and have "&amp;Q9&amp;" hours left to work."</f>
-        <v>You have worked 2 hours this semester and have 148 hours left to work.</v>
+        <v>You have worked 4 hours this semester and have 146 hours left to work.</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -987,27 +990,27 @@
       <c r="M8" s="1"/>
       <c r="N8" s="38">
         <f>SUM(C7:C49)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" s="7">
         <f ca="1">(TODAY()-(O21))/7</f>
-        <v>0.8571428571428571</v>
+        <v>2</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" ref="P8:P9" ca="1" si="0">N8/O8</f>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" ref="Q8:S8" si="1">ROUND(N8,3)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85699999999999998</v>
+        <v>2</v>
       </c>
       <c r="S8" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3330000000000002</v>
+        <v>2</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1019,9 +1022,15 @@
     </row>
     <row r="9" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="12">
+        <v>46051</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="26"/>
       <c r="G9" s="30"/>
@@ -1033,27 +1042,27 @@
       <c r="M9" s="1"/>
       <c r="N9" s="38">
         <f>150-N8</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O9" s="1">
         <f ca="1">(P21-TODAY())/7</f>
-        <v>17</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7058823529411757</v>
+        <v>9.2072072072072064</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" ref="Q9:S9" si="2">ROUND(N9,3)</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>15.856999999999999</v>
       </c>
       <c r="S9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7059999999999995</v>
+        <v>9.2070000000000007</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1065,9 +1074,15 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="12">
+        <v>46055</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="27"/>
       <c r="G10" s="26"/>
@@ -21331,12 +21346,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21599,17 +21613,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21634,11 +21651,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TA/TA Hours - Your Name - Spring 2026.xlsx
+++ b/TA/TA Hours - Your Name - Spring 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Spring-Semester-\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950470EC-A522-4503-AD4B-C0F6FC64A740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9EB0DF-5FD4-45B0-8D48-44CC4B625E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Time spent TAing for STAT201 Spring 2026</t>
   </si>
@@ -719,7 +719,7 @@
   <dimension ref="A1:Z732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="42" t="str">
         <f>"You have worked "&amp;Q8&amp;" hours this semester and have "&amp;Q9&amp;" hours left to work."</f>
-        <v>You have worked 4 hours this semester and have 146 hours left to work.</v>
+        <v>You have worked 6 hours this semester and have 144 hours left to work.</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -990,27 +990,27 @@
       <c r="M8" s="1"/>
       <c r="N8" s="38">
         <f>SUM(C7:C49)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O8" s="7">
         <f ca="1">(TODAY()-(O21))/7</f>
-        <v>2</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" ref="P8:P9" ca="1" si="0">N8/O8</f>
-        <v>2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" ref="Q8:S8" si="1">ROUND(N8,3)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>2.1429999999999998</v>
       </c>
       <c r="S8" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1042,27 +1042,27 @@
       <c r="M9" s="1"/>
       <c r="N9" s="38">
         <f>150-N8</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O9" s="1">
         <f ca="1">(P21-TODAY())/7</f>
-        <v>15.857142857142858</v>
+        <v>15.714285714285714</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2072072072072064</v>
+        <v>9.163636363636364</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" ref="Q9:S9" si="2">ROUND(N9,3)</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>15.856999999999999</v>
+        <v>15.714</v>
       </c>
       <c r="S9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2070000000000007</v>
+        <v>9.1639999999999997</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1108,9 +1108,15 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="12">
+        <v>46057</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="28"/>
       <c r="G11" s="27"/>
@@ -21346,11 +21352,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21613,20 +21620,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21651,9 +21655,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TA/TA Hours - Your Name - Spring 2026.xlsx
+++ b/TA/TA Hours - Your Name - Spring 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Spring-Semester-\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9EB0DF-5FD4-45B0-8D48-44CC4B625E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E13487-A3DF-48AD-A1DC-9F65D311E6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Time spent TAing for STAT201 Spring 2026</t>
   </si>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z732"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="42" t="str">
         <f>"You have worked "&amp;Q8&amp;" hours this semester and have "&amp;Q9&amp;" hours left to work."</f>
-        <v>You have worked 6 hours this semester and have 144 hours left to work.</v>
+        <v>You have worked 8 hours this semester and have 142 hours left to work.</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -990,27 +990,27 @@
       <c r="M8" s="1"/>
       <c r="N8" s="38">
         <f>SUM(C7:C49)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O8" s="7">
         <f ca="1">(TODAY()-(O21))/7</f>
-        <v>2.1428571428571428</v>
+        <v>3</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" ref="P8:P9" ca="1" si="0">N8/O8</f>
-        <v>2.8000000000000003</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" ref="Q8:S8" si="1">ROUND(N8,3)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1429999999999998</v>
+        <v>3</v>
       </c>
       <c r="S8" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1042,27 +1042,27 @@
       <c r="M9" s="1"/>
       <c r="N9" s="38">
         <f>150-N8</f>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O9" s="1">
         <f ca="1">(P21-TODAY())/7</f>
-        <v>15.714285714285714</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.163636363636364</v>
+        <v>9.5576923076923066</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" ref="Q9:S9" si="2">ROUND(N9,3)</f>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>15.714</v>
+        <v>14.856999999999999</v>
       </c>
       <c r="S9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1639999999999997</v>
+        <v>9.5579999999999998</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1142,9 +1142,15 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="12">
+        <v>46060</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -1170,9 +1176,15 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="12">
+        <v>46063</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
@@ -21352,12 +21364,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21620,17 +21631,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21655,11 +21669,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TA/TA Hours - Your Name - Spring 2026.xlsx
+++ b/TA/TA Hours - Your Name - Spring 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Spring-Semester-\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E13487-A3DF-48AD-A1DC-9F65D311E6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFECCC9D-953F-47B9-90F5-F52EEDDDCE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Time spent TAing for STAT201 Spring 2026</t>
   </si>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="42" t="str">
         <f>"You have worked "&amp;Q8&amp;" hours this semester and have "&amp;Q9&amp;" hours left to work."</f>
-        <v>You have worked 8 hours this semester and have 142 hours left to work.</v>
+        <v>You have worked 9.5 hours this semester and have 140.5 hours left to work.</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -990,27 +990,27 @@
       <c r="M8" s="1"/>
       <c r="N8" s="38">
         <f>SUM(C7:C49)</f>
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O8" s="7">
         <f ca="1">(TODAY()-(O21))/7</f>
-        <v>3</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" ref="P8:P9" ca="1" si="0">N8/O8</f>
-        <v>2.6666666666666665</v>
+        <v>2.8913043478260869</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" ref="Q8:S8" si="1">ROUND(N8,3)</f>
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>3.286</v>
       </c>
       <c r="S8" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6669999999999998</v>
+        <v>2.891</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1042,27 +1042,27 @@
       <c r="M9" s="1"/>
       <c r="N9" s="38">
         <f>150-N8</f>
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="O9" s="1">
         <f ca="1">(P21-TODAY())/7</f>
-        <v>14.857142857142858</v>
+        <v>14.571428571428571</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5576923076923066</v>
+        <v>9.6421568627450984</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" ref="Q9:S9" si="2">ROUND(N9,3)</f>
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>14.856999999999999</v>
+        <v>14.571</v>
       </c>
       <c r="S9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5579999999999998</v>
+        <v>9.6419999999999995</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1210,9 +1210,15 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="12">
+        <v>46064</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="27"/>
       <c r="G14" s="28"/>
@@ -1238,9 +1244,15 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="12">
+        <v>46065</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="11"/>
@@ -21364,11 +21376,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21631,20 +21644,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21669,9 +21679,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TA/TA Hours - Your Name - Spring 2026.xlsx
+++ b/TA/TA Hours - Your Name - Spring 2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Spring-Semester-\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFECCC9D-953F-47B9-90F5-F52EEDDDCE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46531CED-3A32-4689-9E79-E0FA77C6165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Time spent TAing for STAT201 Spring 2026</t>
   </si>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z732"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="42" t="str">
         <f>"You have worked "&amp;Q8&amp;" hours this semester and have "&amp;Q9&amp;" hours left to work."</f>
-        <v>You have worked 9.5 hours this semester and have 140.5 hours left to work.</v>
+        <v>You have worked 18.5 hours this semester and have 131.5 hours left to work.</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -990,27 +990,27 @@
       <c r="M8" s="1"/>
       <c r="N8" s="38">
         <f>SUM(C7:C49)</f>
-        <v>9.5</v>
+        <v>18.5</v>
       </c>
       <c r="O8" s="7">
         <f ca="1">(TODAY()-(O21))/7</f>
-        <v>3.2857142857142856</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" ref="P8:P9" ca="1" si="0">N8/O8</f>
-        <v>2.8913043478260869</v>
+        <v>3.4078947368421053</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" ref="Q8:S8" si="1">ROUND(N8,3)</f>
-        <v>9.5</v>
+        <v>18.5</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>3.286</v>
+        <v>5.4290000000000003</v>
       </c>
       <c r="S8" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>2.891</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1042,27 +1042,27 @@
       <c r="M9" s="1"/>
       <c r="N9" s="38">
         <f>150-N8</f>
-        <v>140.5</v>
+        <v>131.5</v>
       </c>
       <c r="O9" s="1">
         <f ca="1">(P21-TODAY())/7</f>
-        <v>14.571428571428571</v>
+        <v>12.428571428571429</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6421568627450984</v>
+        <v>10.580459770114942</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" ref="Q9:S9" si="2">ROUND(N9,3)</f>
-        <v>140.5</v>
+        <v>131.5</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>14.571</v>
+        <v>12.429</v>
       </c>
       <c r="S9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6419999999999995</v>
+        <v>10.58</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1278,9 +1278,15 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="12">
+        <v>46068</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="11"/>
@@ -1306,9 +1312,15 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="12">
+        <v>46070</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="G17" s="11"/>
@@ -1334,9 +1346,15 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="12">
+        <v>46071</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="G18" s="11"/>
@@ -1364,9 +1382,15 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="12">
+        <v>46072</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
       <c r="G19" s="11"/>
@@ -1392,9 +1416,15 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="12">
+        <v>46073</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
       <c r="G20" s="11"/>
@@ -1424,9 +1454,15 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="12">
+        <v>46076</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
       <c r="G21" s="11"/>
@@ -1456,9 +1492,15 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="12">
+        <v>46077</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
       <c r="G22" s="11"/>
@@ -1484,9 +1526,15 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="12">
+        <v>46078</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="1"/>
       <c r="G23" s="11"/>
@@ -1512,9 +1560,15 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="12">
+        <v>46079</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
       <c r="G24" s="11"/>
@@ -21376,12 +21430,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21644,17 +21697,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b03d5476-e3b6-4350-8977-e3faba2d8780" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21679,11 +21735,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1E8C7B-E0D5-46DB-B208-FE86B64740ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD16D02-3393-4092-A087-238CC6856663}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b03d5476-e3b6-4350-8977-e3faba2d8780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>